--- a/excel.xlsx
+++ b/excel.xlsx
@@ -72,7 +72,7 @@
     <t xml:space="preserve">Bihar </t>
   </si>
   <si>
-    <t>ORD-127863</t>
+    <t>665ef54ba982520afbccba78dsagnjyu327</t>
   </si>
   <si>
     <t>Paytm</t>
@@ -90,25 +90,25 @@
     <t xml:space="preserve">Maharashtra </t>
   </si>
   <si>
-    <t>ORD-127864</t>
+    <t>665ef54ba982520afbccba78dsagnjyu328</t>
   </si>
   <si>
     <t>7022299924</t>
   </si>
   <si>
-    <t>ORD-127865</t>
+    <t>665ef54ba982520afbccba78dsagnjyu329</t>
   </si>
   <si>
     <t>7022299925</t>
   </si>
   <si>
-    <t>ORD-127866</t>
+    <t>665ef54ba982520afbccba78dsagnjyu330</t>
   </si>
   <si>
     <t>7022299926</t>
   </si>
   <si>
-    <t>ORD-127867</t>
+    <t>665ef54ba982520afbccba78dsagnjyu331</t>
   </si>
   <si>
     <t>7022299927</t>
@@ -120,7 +120,7 @@
     <t>Delhi</t>
   </si>
   <si>
-    <t>ORD-127868</t>
+    <t>665ef54ba982520afbccba78dsagnjyu332</t>
   </si>
   <si>
     <t>7022299928</t>
@@ -129,145 +129,145 @@
     <t>Thane</t>
   </si>
   <si>
-    <t>ORD-127869</t>
+    <t>665ef54ba982520afbccba78dsagnjyu333</t>
   </si>
   <si>
     <t>7022299929</t>
   </si>
   <si>
-    <t>ORD-127870</t>
+    <t>665ef54ba982520afbccba78dsagnjyu334</t>
   </si>
   <si>
     <t>7022299930</t>
   </si>
   <si>
-    <t>ORD-127871</t>
+    <t>665ef54ba982520afbccba78dsagnjyu335</t>
   </si>
   <si>
     <t>7022299931</t>
   </si>
   <si>
-    <t>ORD-127872</t>
+    <t>665ef54ba982520afbccba78dsagnjyu336</t>
   </si>
   <si>
     <t>7022299932</t>
   </si>
   <si>
-    <t>ORD-127873</t>
+    <t>665ef54ba982520afbccba78dsagnjyu337</t>
   </si>
   <si>
     <t>7022299933</t>
   </si>
   <si>
-    <t>ORD-127874</t>
+    <t>665ef54ba982520afbccba78dsagnjyu338</t>
   </si>
   <si>
     <t>7022299934</t>
   </si>
   <si>
-    <t>ORD-127875</t>
+    <t>665ef54ba982520afbccba78dsagnjyu339</t>
   </si>
   <si>
     <t>7022299935</t>
   </si>
   <si>
-    <t>ORD-127876</t>
+    <t>665ef54ba982520afbccba78dsagnjyu340</t>
   </si>
   <si>
     <t>7022299936</t>
   </si>
   <si>
-    <t>ORD-127877</t>
+    <t>665ef54ba982520afbccba78dsagnjyu341</t>
   </si>
   <si>
     <t>7022299937</t>
   </si>
   <si>
-    <t>ORD-127878</t>
+    <t>665ef54ba982520afbccba78dsagnjyu342</t>
   </si>
   <si>
     <t>7022299938</t>
   </si>
   <si>
-    <t>ORD-127879</t>
+    <t>665ef54ba982520afbccba78dsagnjyu343</t>
   </si>
   <si>
     <t>7022299939</t>
   </si>
   <si>
-    <t>ORD-127880</t>
+    <t>665ef54ba982520afbccba78dsagnjyu344</t>
   </si>
   <si>
     <t>7022299940</t>
   </si>
   <si>
-    <t>ORD-127881</t>
+    <t>665ef54ba982520afbccba78dsagnjyu345</t>
   </si>
   <si>
     <t>7022299941</t>
   </si>
   <si>
-    <t>ORD-127882</t>
+    <t>665ef54ba982520afbccba78dsagnjyu346</t>
   </si>
   <si>
     <t>7022299942</t>
   </si>
   <si>
-    <t>ORD-127883</t>
+    <t>665ef54ba982520afbccba78dsagnjyu347</t>
   </si>
   <si>
     <t>7022299943</t>
   </si>
   <si>
-    <t>ORD-127884</t>
+    <t>665ef54ba982520afbccba78dsagnjyu348</t>
   </si>
   <si>
     <t>7022299944</t>
   </si>
   <si>
-    <t>ORD-127885</t>
+    <t>665ef54ba982520afbccba78dsagnjyu349</t>
   </si>
   <si>
     <t>7022299945</t>
   </si>
   <si>
-    <t>ORD-127886</t>
+    <t>665ef54ba982520afbccba78dsagnjyu350</t>
   </si>
   <si>
     <t>7022299946</t>
   </si>
   <si>
-    <t>ORD-127887</t>
+    <t>665ef54ba982520afbccba78dsagnjyu351</t>
   </si>
   <si>
     <t>7022299947</t>
   </si>
   <si>
-    <t>ORD-127888</t>
+    <t>665ef54ba982520afbccba78dsagnjyu352</t>
   </si>
   <si>
     <t>7022299948</t>
   </si>
   <si>
-    <t>ORD-127889</t>
+    <t>665ef54ba982520afbccba78dsagnjyu353</t>
   </si>
   <si>
     <t>7022299949</t>
   </si>
   <si>
-    <t>ORD-127890</t>
+    <t>665ef54ba982520afbccba78dsagnjyu354</t>
   </si>
   <si>
     <t>7022299950</t>
   </si>
   <si>
-    <t>ORD-127891</t>
+    <t>665ef54ba982520afbccba78dsagnjyu355</t>
   </si>
   <si>
     <t>7022299951</t>
   </si>
   <si>
-    <t>ORD-127892</t>
+    <t>665ef54ba982520afbccba78dsagnjyu356</t>
   </si>
 </sst>
 </file>
